--- a/Medidas.xlsx
+++ b/Medidas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d47032d817d70444/MASTER MUSE/3 CUATRI/MUE/dani_cono/MuE_Patran/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive - Universidad Politécnica de Madrid\Escritorio\UPM\2o\TeP\MuE_Patran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{04355803-DA82-403A-9BAB-C12A4B65DD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBEE8CF3-0888-4FD6-B35D-527EDE0FB0F5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9AEA9D-8A2D-4769-806B-D44C63BB6BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36107290-6AAD-42D7-9125-BDDD2D471349}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Horizontales</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Posición Z</t>
   </si>
   <si>
-    <t>0.065 mm</t>
-  </si>
-  <si>
     <t>Intermedio 1</t>
   </si>
   <si>
@@ -63,19 +60,7 @@
     <t>Superior</t>
   </si>
   <si>
-    <t>44.498 mm</t>
-  </si>
-  <si>
-    <t>137.712 mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">66.767 mm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">218.369 mm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">275.235 mm </t>
   </si>
   <si>
     <t>PI</t>
@@ -92,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -140,10 +125,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,7 +147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,33 +446,33 @@
   <dimension ref="A2:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>125.241</v>
       </c>
     </row>
@@ -495,13 +480,13 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5">
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <f>2*B24*B4</f>
@@ -513,7 +498,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -528,13 +513,17 @@
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B9">
+        <v>44.497999999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9/SIN(75)</f>
+        <v>-114.75014785838889</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <f>2*B24*B8</f>
@@ -546,7 +535,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -561,13 +550,14 @@
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
+      <c r="B13">
+        <v>137.71199999999999</v>
+      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <f>2*B24*B12</f>
@@ -579,7 +569,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -587,28 +577,29 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
+      <c r="B17">
+        <v>218.369</v>
+      </c>
+      <c r="C17" s="1">
+        <f>B17/SIN(75)</f>
+        <v>-563.12362438061314</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -623,13 +614,17 @@
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
-        <v>13</v>
+      <c r="B21">
+        <v>275.23500000000001</v>
+      </c>
+      <c r="C21">
+        <f>B21/SIN(75)</f>
+        <v>-709.76801082753536</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <f>2*B24*B20</f>
@@ -644,7 +639,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <f>PI()</f>
